--- a/data_kodex_kospi.xlsx
+++ b/data_kodex_kospi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="260">
   <si>
     <t>DATE</t>
   </si>
@@ -511,6 +511,39 @@
     <t>2022-05-13</t>
   </si>
   <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -532,298 +565,235 @@
     <t>16</t>
   </si>
   <si>
-    <t>2022042510</t>
+    <t>2022051610</t>
   </si>
   <si>
-    <t>2022042511</t>
+    <t>2022051611</t>
   </si>
   <si>
-    <t>2022042512</t>
+    <t>2022051612</t>
   </si>
   <si>
-    <t>2022042513</t>
+    <t>2022051613</t>
   </si>
   <si>
-    <t>2022042514</t>
+    <t>2022051614</t>
   </si>
   <si>
-    <t>2022042515</t>
+    <t>2022051615</t>
   </si>
   <si>
-    <t>2022042516</t>
+    <t>2022051616</t>
   </si>
   <si>
-    <t>2022042610</t>
+    <t>2022051710</t>
   </si>
   <si>
-    <t>2022042611</t>
+    <t>2022051711</t>
   </si>
   <si>
-    <t>2022042612</t>
+    <t>2022051712</t>
   </si>
   <si>
-    <t>2022042613</t>
+    <t>2022051713</t>
   </si>
   <si>
-    <t>2022042614</t>
+    <t>2022051714</t>
   </si>
   <si>
-    <t>2022042615</t>
+    <t>2022051715</t>
   </si>
   <si>
-    <t>2022042616</t>
+    <t>2022051716</t>
   </si>
   <si>
-    <t>2022042710</t>
+    <t>2022051810</t>
   </si>
   <si>
-    <t>2022042711</t>
+    <t>2022051811</t>
   </si>
   <si>
-    <t>2022042712</t>
+    <t>2022051812</t>
   </si>
   <si>
-    <t>2022042713</t>
+    <t>2022051813</t>
   </si>
   <si>
-    <t>2022042714</t>
+    <t>2022051814</t>
   </si>
   <si>
-    <t>2022042715</t>
+    <t>2022051815</t>
   </si>
   <si>
-    <t>2022042716</t>
+    <t>2022051816</t>
   </si>
   <si>
-    <t>2022042810</t>
+    <t>2022051910</t>
   </si>
   <si>
-    <t>2022042811</t>
+    <t>2022051911</t>
   </si>
   <si>
-    <t>2022042812</t>
+    <t>2022051912</t>
   </si>
   <si>
-    <t>2022042813</t>
+    <t>2022051913</t>
   </si>
   <si>
-    <t>2022042814</t>
+    <t>2022051914</t>
   </si>
   <si>
-    <t>2022042815</t>
+    <t>2022051915</t>
   </si>
   <si>
-    <t>2022042816</t>
+    <t>2022051916</t>
   </si>
   <si>
-    <t>2022042910</t>
+    <t>2022052010</t>
   </si>
   <si>
-    <t>2022042911</t>
+    <t>2022052011</t>
   </si>
   <si>
-    <t>2022042912</t>
+    <t>2022052012</t>
   </si>
   <si>
-    <t>2022042913</t>
+    <t>2022052013</t>
   </si>
   <si>
-    <t>2022042914</t>
+    <t>2022052014</t>
   </si>
   <si>
-    <t>2022042915</t>
+    <t>2022052015</t>
   </si>
   <si>
-    <t>2022042916</t>
+    <t>2022052016</t>
   </si>
   <si>
-    <t>2022050210</t>
+    <t>2022052310</t>
   </si>
   <si>
-    <t>2022050211</t>
+    <t>2022052311</t>
   </si>
   <si>
-    <t>2022050212</t>
+    <t>2022052312</t>
   </si>
   <si>
-    <t>2022050213</t>
+    <t>2022052313</t>
   </si>
   <si>
-    <t>2022050214</t>
+    <t>2022052314</t>
   </si>
   <si>
-    <t>2022050215</t>
+    <t>2022052315</t>
   </si>
   <si>
-    <t>2022050216</t>
+    <t>2022052316</t>
   </si>
   <si>
-    <t>2022050310</t>
+    <t>2022052410</t>
   </si>
   <si>
-    <t>2022050311</t>
+    <t>2022052411</t>
   </si>
   <si>
-    <t>2022050312</t>
+    <t>2022052412</t>
   </si>
   <si>
-    <t>2022050313</t>
+    <t>2022052413</t>
   </si>
   <si>
-    <t>2022050314</t>
+    <t>2022052414</t>
   </si>
   <si>
-    <t>2022050315</t>
+    <t>2022052415</t>
   </si>
   <si>
-    <t>2022050316</t>
+    <t>2022052416</t>
   </si>
   <si>
-    <t>2022050410</t>
+    <t>2022052510</t>
   </si>
   <si>
-    <t>2022050411</t>
+    <t>2022052511</t>
   </si>
   <si>
-    <t>2022050412</t>
+    <t>2022052512</t>
   </si>
   <si>
-    <t>2022050413</t>
+    <t>2022052513</t>
   </si>
   <si>
-    <t>2022050414</t>
+    <t>2022052514</t>
   </si>
   <si>
-    <t>2022050415</t>
+    <t>2022052515</t>
   </si>
   <si>
-    <t>2022050416</t>
+    <t>2022052516</t>
   </si>
   <si>
-    <t>2022050610</t>
+    <t>2022052610</t>
   </si>
   <si>
-    <t>2022050611</t>
+    <t>2022052611</t>
   </si>
   <si>
-    <t>2022050612</t>
+    <t>2022052612</t>
   </si>
   <si>
-    <t>2022050613</t>
+    <t>2022052613</t>
   </si>
   <si>
-    <t>2022050614</t>
+    <t>2022052614</t>
   </si>
   <si>
-    <t>2022050615</t>
+    <t>2022052615</t>
   </si>
   <si>
-    <t>2022050616</t>
+    <t>2022052616</t>
   </si>
   <si>
-    <t>2022050910</t>
+    <t>2022052710</t>
   </si>
   <si>
-    <t>2022050911</t>
+    <t>2022052711</t>
   </si>
   <si>
-    <t>2022050912</t>
+    <t>2022052712</t>
   </si>
   <si>
-    <t>2022050913</t>
+    <t>2022052713</t>
   </si>
   <si>
-    <t>2022050914</t>
+    <t>2022052714</t>
   </si>
   <si>
-    <t>2022050915</t>
+    <t>2022052715</t>
   </si>
   <si>
-    <t>2022050916</t>
+    <t>2022052716</t>
   </si>
   <si>
-    <t>2022051010</t>
+    <t>2022053010</t>
   </si>
   <si>
-    <t>2022051011</t>
+    <t>2022053011</t>
   </si>
   <si>
-    <t>2022051012</t>
+    <t>2022053012</t>
   </si>
   <si>
-    <t>2022051013</t>
+    <t>2022053013</t>
   </si>
   <si>
-    <t>2022051014</t>
+    <t>2022053014</t>
   </si>
   <si>
-    <t>2022051015</t>
+    <t>2022053015</t>
   </si>
   <si>
-    <t>2022051016</t>
-  </si>
-  <si>
-    <t>2022051110</t>
-  </si>
-  <si>
-    <t>2022051111</t>
-  </si>
-  <si>
-    <t>2022051112</t>
-  </si>
-  <si>
-    <t>2022051113</t>
-  </si>
-  <si>
-    <t>2022051114</t>
-  </si>
-  <si>
-    <t>2022051115</t>
-  </si>
-  <si>
-    <t>2022051116</t>
-  </si>
-  <si>
-    <t>2022051210</t>
-  </si>
-  <si>
-    <t>2022051211</t>
-  </si>
-  <si>
-    <t>2022051212</t>
-  </si>
-  <si>
-    <t>2022051213</t>
-  </si>
-  <si>
-    <t>2022051214</t>
-  </si>
-  <si>
-    <t>2022051215</t>
-  </si>
-  <si>
-    <t>2022051216</t>
-  </si>
-  <si>
-    <t>2022051310</t>
-  </si>
-  <si>
-    <t>2022051311</t>
-  </si>
-  <si>
-    <t>2022051312</t>
-  </si>
-  <si>
-    <t>2022051313</t>
-  </si>
-  <si>
-    <t>2022051314</t>
-  </si>
-  <si>
-    <t>2022051315</t>
-  </si>
-  <si>
-    <t>2022051316</t>
+    <t>2022053016</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1099"/>
+  <dimension ref="A1:H1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27217,11 +27187,11 @@
       <c r="A1002" t="s">
         <v>151</v>
       </c>
-      <c r="B1002" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>172</v>
+      <c r="B1002">
+        <v>10</v>
+      </c>
+      <c r="C1002">
+        <v>2022042510</v>
       </c>
       <c r="D1002">
         <v>26976</v>
@@ -27243,11 +27213,11 @@
       <c r="A1003" t="s">
         <v>151</v>
       </c>
-      <c r="B1003" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>173</v>
+      <c r="B1003">
+        <v>11</v>
+      </c>
+      <c r="C1003">
+        <v>2022042511</v>
       </c>
       <c r="D1003">
         <v>27040</v>
@@ -27269,11 +27239,11 @@
       <c r="A1004" t="s">
         <v>151</v>
       </c>
-      <c r="B1004" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>174</v>
+      <c r="B1004">
+        <v>12</v>
+      </c>
+      <c r="C1004">
+        <v>2022042512</v>
       </c>
       <c r="D1004">
         <v>26887</v>
@@ -27295,11 +27265,11 @@
       <c r="A1005" t="s">
         <v>151</v>
       </c>
-      <c r="B1005" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>175</v>
+      <c r="B1005">
+        <v>13</v>
+      </c>
+      <c r="C1005">
+        <v>2022042513</v>
       </c>
       <c r="D1005">
         <v>26887</v>
@@ -27321,11 +27291,11 @@
       <c r="A1006" t="s">
         <v>151</v>
       </c>
-      <c r="B1006" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1006" t="s">
-        <v>176</v>
+      <c r="B1006">
+        <v>14</v>
+      </c>
+      <c r="C1006">
+        <v>2022042514</v>
       </c>
       <c r="D1006">
         <v>26921</v>
@@ -27347,11 +27317,11 @@
       <c r="A1007" t="s">
         <v>151</v>
       </c>
-      <c r="B1007" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>177</v>
+      <c r="B1007">
+        <v>15</v>
+      </c>
+      <c r="C1007">
+        <v>2022042515</v>
       </c>
       <c r="D1007">
         <v>26916</v>
@@ -27373,11 +27343,11 @@
       <c r="A1008" t="s">
         <v>151</v>
       </c>
-      <c r="B1008" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>178</v>
+      <c r="B1008">
+        <v>16</v>
+      </c>
+      <c r="C1008">
+        <v>2022042516</v>
       </c>
       <c r="D1008">
         <v>26907</v>
@@ -27399,11 +27369,11 @@
       <c r="A1009" t="s">
         <v>152</v>
       </c>
-      <c r="B1009" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>179</v>
+      <c r="B1009">
+        <v>10</v>
+      </c>
+      <c r="C1009">
+        <v>2022042610</v>
       </c>
       <c r="D1009">
         <v>27035</v>
@@ -27425,11 +27395,11 @@
       <c r="A1010" t="s">
         <v>152</v>
       </c>
-      <c r="B1010" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>180</v>
+      <c r="B1010">
+        <v>11</v>
+      </c>
+      <c r="C1010">
+        <v>2022042611</v>
       </c>
       <c r="D1010">
         <v>26971</v>
@@ -27451,11 +27421,11 @@
       <c r="A1011" t="s">
         <v>152</v>
       </c>
-      <c r="B1011" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>181</v>
+      <c r="B1011">
+        <v>12</v>
+      </c>
+      <c r="C1011">
+        <v>2022042612</v>
       </c>
       <c r="D1011">
         <v>26936</v>
@@ -27477,11 +27447,11 @@
       <c r="A1012" t="s">
         <v>152</v>
       </c>
-      <c r="B1012" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>182</v>
+      <c r="B1012">
+        <v>13</v>
+      </c>
+      <c r="C1012">
+        <v>2022042613</v>
       </c>
       <c r="D1012">
         <v>26990</v>
@@ -27503,11 +27473,11 @@
       <c r="A1013" t="s">
         <v>152</v>
       </c>
-      <c r="B1013" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>183</v>
+      <c r="B1013">
+        <v>14</v>
+      </c>
+      <c r="C1013">
+        <v>2022042614</v>
       </c>
       <c r="D1013">
         <v>26985</v>
@@ -27529,11 +27499,11 @@
       <c r="A1014" t="s">
         <v>152</v>
       </c>
-      <c r="B1014" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>184</v>
+      <c r="B1014">
+        <v>15</v>
+      </c>
+      <c r="C1014">
+        <v>2022042615</v>
       </c>
       <c r="D1014">
         <v>26966</v>
@@ -27555,11 +27525,11 @@
       <c r="A1015" t="s">
         <v>152</v>
       </c>
-      <c r="B1015" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>185</v>
+      <c r="B1015">
+        <v>16</v>
+      </c>
+      <c r="C1015">
+        <v>2022042616</v>
       </c>
       <c r="D1015">
         <v>26961</v>
@@ -27581,11 +27551,11 @@
       <c r="A1016" t="s">
         <v>153</v>
       </c>
-      <c r="B1016" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>186</v>
+      <c r="B1016">
+        <v>10</v>
+      </c>
+      <c r="C1016">
+        <v>2022042710</v>
       </c>
       <c r="D1016">
         <v>26439</v>
@@ -27607,11 +27577,11 @@
       <c r="A1017" t="s">
         <v>153</v>
       </c>
-      <c r="B1017" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>187</v>
+      <c r="B1017">
+        <v>11</v>
+      </c>
+      <c r="C1017">
+        <v>2022042711</v>
       </c>
       <c r="D1017">
         <v>26508</v>
@@ -27633,11 +27603,11 @@
       <c r="A1018" t="s">
         <v>153</v>
       </c>
-      <c r="B1018" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>188</v>
+      <c r="B1018">
+        <v>12</v>
+      </c>
+      <c r="C1018">
+        <v>2022042712</v>
       </c>
       <c r="D1018">
         <v>26621</v>
@@ -27659,11 +27629,11 @@
       <c r="A1019" t="s">
         <v>153</v>
       </c>
-      <c r="B1019" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>189</v>
+      <c r="B1019">
+        <v>13</v>
+      </c>
+      <c r="C1019">
+        <v>2022042713</v>
       </c>
       <c r="D1019">
         <v>26670</v>
@@ -27685,11 +27655,11 @@
       <c r="A1020" t="s">
         <v>153</v>
       </c>
-      <c r="B1020" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>190</v>
+      <c r="B1020">
+        <v>14</v>
+      </c>
+      <c r="C1020">
+        <v>2022042714</v>
       </c>
       <c r="D1020">
         <v>26641</v>
@@ -27711,11 +27681,11 @@
       <c r="A1021" t="s">
         <v>153</v>
       </c>
-      <c r="B1021" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>191</v>
+      <c r="B1021">
+        <v>15</v>
+      </c>
+      <c r="C1021">
+        <v>2022042715</v>
       </c>
       <c r="D1021">
         <v>26592</v>
@@ -27737,11 +27707,11 @@
       <c r="A1022" t="s">
         <v>153</v>
       </c>
-      <c r="B1022" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1022" t="s">
-        <v>192</v>
+      <c r="B1022">
+        <v>16</v>
+      </c>
+      <c r="C1022">
+        <v>2022042716</v>
       </c>
       <c r="D1022">
         <v>26631</v>
@@ -27763,11 +27733,11 @@
       <c r="A1023" t="s">
         <v>154</v>
       </c>
-      <c r="B1023" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>193</v>
+      <c r="B1023">
+        <v>10</v>
+      </c>
+      <c r="C1023">
+        <v>2022042810</v>
       </c>
       <c r="D1023">
         <v>26815</v>
@@ -27789,11 +27759,11 @@
       <c r="A1024" t="s">
         <v>154</v>
       </c>
-      <c r="B1024" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1024" t="s">
-        <v>194</v>
+      <c r="B1024">
+        <v>11</v>
+      </c>
+      <c r="C1024">
+        <v>2022042811</v>
       </c>
       <c r="D1024">
         <v>26735</v>
@@ -27815,11 +27785,11 @@
       <c r="A1025" t="s">
         <v>154</v>
       </c>
-      <c r="B1025" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>195</v>
+      <c r="B1025">
+        <v>12</v>
+      </c>
+      <c r="C1025">
+        <v>2022042812</v>
       </c>
       <c r="D1025">
         <v>26740</v>
@@ -27841,11 +27811,11 @@
       <c r="A1026" t="s">
         <v>154</v>
       </c>
-      <c r="B1026" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1026" t="s">
-        <v>196</v>
+      <c r="B1026">
+        <v>13</v>
+      </c>
+      <c r="C1026">
+        <v>2022042813</v>
       </c>
       <c r="D1026">
         <v>26800</v>
@@ -27867,11 +27837,11 @@
       <c r="A1027" t="s">
         <v>154</v>
       </c>
-      <c r="B1027" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>197</v>
+      <c r="B1027">
+        <v>14</v>
+      </c>
+      <c r="C1027">
+        <v>2022042814</v>
       </c>
       <c r="D1027">
         <v>26805</v>
@@ -27893,11 +27863,11 @@
       <c r="A1028" t="s">
         <v>154</v>
       </c>
-      <c r="B1028" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>198</v>
+      <c r="B1028">
+        <v>15</v>
+      </c>
+      <c r="C1028">
+        <v>2022042815</v>
       </c>
       <c r="D1028">
         <v>26840</v>
@@ -27919,11 +27889,11 @@
       <c r="A1029" t="s">
         <v>154</v>
       </c>
-      <c r="B1029" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1029" t="s">
-        <v>199</v>
+      <c r="B1029">
+        <v>16</v>
+      </c>
+      <c r="C1029">
+        <v>2022042816</v>
       </c>
       <c r="D1029">
         <v>26885</v>
@@ -27945,11 +27915,11 @@
       <c r="A1030" t="s">
         <v>155</v>
       </c>
-      <c r="B1030" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>200</v>
+      <c r="B1030">
+        <v>10</v>
+      </c>
+      <c r="C1030">
+        <v>2022042910</v>
       </c>
       <c r="D1030">
         <v>27000</v>
@@ -27971,11 +27941,11 @@
       <c r="A1031" t="s">
         <v>155</v>
       </c>
-      <c r="B1031" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>201</v>
+      <c r="B1031">
+        <v>11</v>
+      </c>
+      <c r="C1031">
+        <v>2022042911</v>
       </c>
       <c r="D1031">
         <v>27160</v>
@@ -27997,11 +27967,11 @@
       <c r="A1032" t="s">
         <v>155</v>
       </c>
-      <c r="B1032" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1032" t="s">
-        <v>202</v>
+      <c r="B1032">
+        <v>12</v>
+      </c>
+      <c r="C1032">
+        <v>2022042912</v>
       </c>
       <c r="D1032">
         <v>27140</v>
@@ -28023,11 +27993,11 @@
       <c r="A1033" t="s">
         <v>155</v>
       </c>
-      <c r="B1033" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1033" t="s">
-        <v>203</v>
+      <c r="B1033">
+        <v>13</v>
+      </c>
+      <c r="C1033">
+        <v>2022042913</v>
       </c>
       <c r="D1033">
         <v>27110</v>
@@ -28049,11 +28019,11 @@
       <c r="A1034" t="s">
         <v>155</v>
       </c>
-      <c r="B1034" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>204</v>
+      <c r="B1034">
+        <v>14</v>
+      </c>
+      <c r="C1034">
+        <v>2022042914</v>
       </c>
       <c r="D1034">
         <v>27175</v>
@@ -28075,11 +28045,11 @@
       <c r="A1035" t="s">
         <v>155</v>
       </c>
-      <c r="B1035" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>205</v>
+      <c r="B1035">
+        <v>15</v>
+      </c>
+      <c r="C1035">
+        <v>2022042915</v>
       </c>
       <c r="D1035">
         <v>27185</v>
@@ -28101,11 +28071,11 @@
       <c r="A1036" t="s">
         <v>155</v>
       </c>
-      <c r="B1036" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1036" t="s">
-        <v>206</v>
+      <c r="B1036">
+        <v>16</v>
+      </c>
+      <c r="C1036">
+        <v>2022042916</v>
       </c>
       <c r="D1036">
         <v>27220</v>
@@ -28127,11 +28097,11 @@
       <c r="A1037" t="s">
         <v>156</v>
       </c>
-      <c r="B1037" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>207</v>
+      <c r="B1037">
+        <v>10</v>
+      </c>
+      <c r="C1037">
+        <v>2022050210</v>
       </c>
       <c r="D1037">
         <v>26965</v>
@@ -28153,11 +28123,11 @@
       <c r="A1038" t="s">
         <v>156</v>
       </c>
-      <c r="B1038" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1038" t="s">
-        <v>208</v>
+      <c r="B1038">
+        <v>11</v>
+      </c>
+      <c r="C1038">
+        <v>2022050211</v>
       </c>
       <c r="D1038">
         <v>27070</v>
@@ -28179,11 +28149,11 @@
       <c r="A1039" t="s">
         <v>156</v>
       </c>
-      <c r="B1039" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1039" t="s">
-        <v>209</v>
+      <c r="B1039">
+        <v>12</v>
+      </c>
+      <c r="C1039">
+        <v>2022050212</v>
       </c>
       <c r="D1039">
         <v>27010</v>
@@ -28205,11 +28175,11 @@
       <c r="A1040" t="s">
         <v>156</v>
       </c>
-      <c r="B1040" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>210</v>
+      <c r="B1040">
+        <v>13</v>
+      </c>
+      <c r="C1040">
+        <v>2022050213</v>
       </c>
       <c r="D1040">
         <v>27040</v>
@@ -28231,11 +28201,11 @@
       <c r="A1041" t="s">
         <v>156</v>
       </c>
-      <c r="B1041" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>211</v>
+      <c r="B1041">
+        <v>14</v>
+      </c>
+      <c r="C1041">
+        <v>2022050214</v>
       </c>
       <c r="D1041">
         <v>27075</v>
@@ -28257,11 +28227,11 @@
       <c r="A1042" t="s">
         <v>156</v>
       </c>
-      <c r="B1042" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1042" t="s">
-        <v>212</v>
+      <c r="B1042">
+        <v>15</v>
+      </c>
+      <c r="C1042">
+        <v>2022050215</v>
       </c>
       <c r="D1042">
         <v>27140</v>
@@ -28283,11 +28253,11 @@
       <c r="A1043" t="s">
         <v>156</v>
       </c>
-      <c r="B1043" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>213</v>
+      <c r="B1043">
+        <v>16</v>
+      </c>
+      <c r="C1043">
+        <v>2022050216</v>
       </c>
       <c r="D1043">
         <v>27130</v>
@@ -28309,11 +28279,11 @@
       <c r="A1044" t="s">
         <v>157</v>
       </c>
-      <c r="B1044" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1044" t="s">
-        <v>214</v>
+      <c r="B1044">
+        <v>10</v>
+      </c>
+      <c r="C1044">
+        <v>2022050310</v>
       </c>
       <c r="D1044">
         <v>27170</v>
@@ -28335,11 +28305,11 @@
       <c r="A1045" t="s">
         <v>157</v>
       </c>
-      <c r="B1045" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>215</v>
+      <c r="B1045">
+        <v>11</v>
+      </c>
+      <c r="C1045">
+        <v>2022050311</v>
       </c>
       <c r="D1045">
         <v>27220</v>
@@ -28361,11 +28331,11 @@
       <c r="A1046" t="s">
         <v>157</v>
       </c>
-      <c r="B1046" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>216</v>
+      <c r="B1046">
+        <v>12</v>
+      </c>
+      <c r="C1046">
+        <v>2022050312</v>
       </c>
       <c r="D1046">
         <v>27230</v>
@@ -28387,11 +28357,11 @@
       <c r="A1047" t="s">
         <v>157</v>
       </c>
-      <c r="B1047" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>217</v>
+      <c r="B1047">
+        <v>13</v>
+      </c>
+      <c r="C1047">
+        <v>2022050313</v>
       </c>
       <c r="D1047">
         <v>27270</v>
@@ -28413,11 +28383,11 @@
       <c r="A1048" t="s">
         <v>157</v>
       </c>
-      <c r="B1048" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>218</v>
+      <c r="B1048">
+        <v>14</v>
+      </c>
+      <c r="C1048">
+        <v>2022050314</v>
       </c>
       <c r="D1048">
         <v>27210</v>
@@ -28439,11 +28409,11 @@
       <c r="A1049" t="s">
         <v>157</v>
       </c>
-      <c r="B1049" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>219</v>
+      <c r="B1049">
+        <v>15</v>
+      </c>
+      <c r="C1049">
+        <v>2022050315</v>
       </c>
       <c r="D1049">
         <v>27160</v>
@@ -28465,11 +28435,11 @@
       <c r="A1050" t="s">
         <v>157</v>
       </c>
-      <c r="B1050" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1050" t="s">
-        <v>220</v>
+      <c r="B1050">
+        <v>16</v>
+      </c>
+      <c r="C1050">
+        <v>2022050316</v>
       </c>
       <c r="D1050">
         <v>27140</v>
@@ -28491,11 +28461,11 @@
       <c r="A1051" t="s">
         <v>158</v>
       </c>
-      <c r="B1051" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>221</v>
+      <c r="B1051">
+        <v>10</v>
+      </c>
+      <c r="C1051">
+        <v>2022050410</v>
       </c>
       <c r="D1051">
         <v>27205</v>
@@ -28517,11 +28487,11 @@
       <c r="A1052" t="s">
         <v>158</v>
       </c>
-      <c r="B1052" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>222</v>
+      <c r="B1052">
+        <v>11</v>
+      </c>
+      <c r="C1052">
+        <v>2022050411</v>
       </c>
       <c r="D1052">
         <v>27185</v>
@@ -28543,11 +28513,11 @@
       <c r="A1053" t="s">
         <v>158</v>
       </c>
-      <c r="B1053" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>223</v>
+      <c r="B1053">
+        <v>12</v>
+      </c>
+      <c r="C1053">
+        <v>2022050412</v>
       </c>
       <c r="D1053">
         <v>27125</v>
@@ -28569,11 +28539,11 @@
       <c r="A1054" t="s">
         <v>158</v>
       </c>
-      <c r="B1054" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1054" t="s">
-        <v>224</v>
+      <c r="B1054">
+        <v>13</v>
+      </c>
+      <c r="C1054">
+        <v>2022050413</v>
       </c>
       <c r="D1054">
         <v>27050</v>
@@ -28595,11 +28565,11 @@
       <c r="A1055" t="s">
         <v>158</v>
       </c>
-      <c r="B1055" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>225</v>
+      <c r="B1055">
+        <v>14</v>
+      </c>
+      <c r="C1055">
+        <v>2022050414</v>
       </c>
       <c r="D1055">
         <v>27010</v>
@@ -28621,11 +28591,11 @@
       <c r="A1056" t="s">
         <v>158</v>
       </c>
-      <c r="B1056" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>226</v>
+      <c r="B1056">
+        <v>15</v>
+      </c>
+      <c r="C1056">
+        <v>2022050415</v>
       </c>
       <c r="D1056">
         <v>27035</v>
@@ -28647,11 +28617,11 @@
       <c r="A1057" t="s">
         <v>158</v>
       </c>
-      <c r="B1057" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>227</v>
+      <c r="B1057">
+        <v>16</v>
+      </c>
+      <c r="C1057">
+        <v>2022050416</v>
       </c>
       <c r="D1057">
         <v>26980</v>
@@ -28673,11 +28643,11 @@
       <c r="A1058" t="s">
         <v>159</v>
       </c>
-      <c r="B1058" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>228</v>
+      <c r="B1058">
+        <v>10</v>
+      </c>
+      <c r="C1058">
+        <v>2022050610</v>
       </c>
       <c r="D1058">
         <v>26750</v>
@@ -28699,11 +28669,11 @@
       <c r="A1059" t="s">
         <v>159</v>
       </c>
-      <c r="B1059" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>229</v>
+      <c r="B1059">
+        <v>11</v>
+      </c>
+      <c r="C1059">
+        <v>2022050611</v>
       </c>
       <c r="D1059">
         <v>26750</v>
@@ -28725,11 +28695,11 @@
       <c r="A1060" t="s">
         <v>159</v>
       </c>
-      <c r="B1060" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>230</v>
+      <c r="B1060">
+        <v>12</v>
+      </c>
+      <c r="C1060">
+        <v>2022050612</v>
       </c>
       <c r="D1060">
         <v>26685</v>
@@ -28751,11 +28721,11 @@
       <c r="A1061" t="s">
         <v>159</v>
       </c>
-      <c r="B1061" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>231</v>
+      <c r="B1061">
+        <v>13</v>
+      </c>
+      <c r="C1061">
+        <v>2022050613</v>
       </c>
       <c r="D1061">
         <v>26690</v>
@@ -28777,11 +28747,11 @@
       <c r="A1062" t="s">
         <v>159</v>
       </c>
-      <c r="B1062" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1062" t="s">
-        <v>232</v>
+      <c r="B1062">
+        <v>14</v>
+      </c>
+      <c r="C1062">
+        <v>2022050614</v>
       </c>
       <c r="D1062">
         <v>26720</v>
@@ -28803,11 +28773,11 @@
       <c r="A1063" t="s">
         <v>159</v>
       </c>
-      <c r="B1063" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>233</v>
+      <c r="B1063">
+        <v>15</v>
+      </c>
+      <c r="C1063">
+        <v>2022050615</v>
       </c>
       <c r="D1063">
         <v>26725</v>
@@ -28829,11 +28799,11 @@
       <c r="A1064" t="s">
         <v>159</v>
       </c>
-      <c r="B1064" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>234</v>
+      <c r="B1064">
+        <v>16</v>
+      </c>
+      <c r="C1064">
+        <v>2022050616</v>
       </c>
       <c r="D1064">
         <v>26730</v>
@@ -28855,11 +28825,11 @@
       <c r="A1065" t="s">
         <v>160</v>
       </c>
-      <c r="B1065" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>235</v>
+      <c r="B1065">
+        <v>10</v>
+      </c>
+      <c r="C1065">
+        <v>2022050910</v>
       </c>
       <c r="D1065">
         <v>26605</v>
@@ -28881,11 +28851,11 @@
       <c r="A1066" t="s">
         <v>160</v>
       </c>
-      <c r="B1066" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>236</v>
+      <c r="B1066">
+        <v>11</v>
+      </c>
+      <c r="C1066">
+        <v>2022050911</v>
       </c>
       <c r="D1066">
         <v>26495</v>
@@ -28907,11 +28877,11 @@
       <c r="A1067" t="s">
         <v>160</v>
       </c>
-      <c r="B1067" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1067" t="s">
-        <v>237</v>
+      <c r="B1067">
+        <v>12</v>
+      </c>
+      <c r="C1067">
+        <v>2022050912</v>
       </c>
       <c r="D1067">
         <v>26510</v>
@@ -28933,11 +28903,11 @@
       <c r="A1068" t="s">
         <v>160</v>
       </c>
-      <c r="B1068" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1068" t="s">
-        <v>238</v>
+      <c r="B1068">
+        <v>13</v>
+      </c>
+      <c r="C1068">
+        <v>2022050913</v>
       </c>
       <c r="D1068">
         <v>26500</v>
@@ -28959,11 +28929,11 @@
       <c r="A1069" t="s">
         <v>160</v>
       </c>
-      <c r="B1069" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>239</v>
+      <c r="B1069">
+        <v>14</v>
+      </c>
+      <c r="C1069">
+        <v>2022050914</v>
       </c>
       <c r="D1069">
         <v>26485</v>
@@ -28985,11 +28955,11 @@
       <c r="A1070" t="s">
         <v>160</v>
       </c>
-      <c r="B1070" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1070" t="s">
-        <v>240</v>
+      <c r="B1070">
+        <v>15</v>
+      </c>
+      <c r="C1070">
+        <v>2022050915</v>
       </c>
       <c r="D1070">
         <v>26380</v>
@@ -29011,11 +28981,11 @@
       <c r="A1071" t="s">
         <v>160</v>
       </c>
-      <c r="B1071" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>241</v>
+      <c r="B1071">
+        <v>16</v>
+      </c>
+      <c r="C1071">
+        <v>2022050916</v>
       </c>
       <c r="D1071">
         <v>26335</v>
@@ -29037,11 +29007,11 @@
       <c r="A1072" t="s">
         <v>161</v>
       </c>
-      <c r="B1072" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>242</v>
+      <c r="B1072">
+        <v>10</v>
+      </c>
+      <c r="C1072">
+        <v>2022051010</v>
       </c>
       <c r="D1072">
         <v>26050</v>
@@ -29063,11 +29033,11 @@
       <c r="A1073" t="s">
         <v>161</v>
       </c>
-      <c r="B1073" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>243</v>
+      <c r="B1073">
+        <v>11</v>
+      </c>
+      <c r="C1073">
+        <v>2022051011</v>
       </c>
       <c r="D1073">
         <v>25850</v>
@@ -29089,11 +29059,11 @@
       <c r="A1074" t="s">
         <v>161</v>
       </c>
-      <c r="B1074" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1074" t="s">
-        <v>244</v>
+      <c r="B1074">
+        <v>12</v>
+      </c>
+      <c r="C1074">
+        <v>2022051012</v>
       </c>
       <c r="D1074">
         <v>25985</v>
@@ -29115,11 +29085,11 @@
       <c r="A1075" t="s">
         <v>161</v>
       </c>
-      <c r="B1075" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1075" t="s">
-        <v>245</v>
+      <c r="B1075">
+        <v>13</v>
+      </c>
+      <c r="C1075">
+        <v>2022051013</v>
       </c>
       <c r="D1075">
         <v>26080</v>
@@ -29141,11 +29111,11 @@
       <c r="A1076" t="s">
         <v>161</v>
       </c>
-      <c r="B1076" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>246</v>
+      <c r="B1076">
+        <v>14</v>
+      </c>
+      <c r="C1076">
+        <v>2022051014</v>
       </c>
       <c r="D1076">
         <v>26200</v>
@@ -29167,11 +29137,11 @@
       <c r="A1077" t="s">
         <v>161</v>
       </c>
-      <c r="B1077" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>247</v>
+      <c r="B1077">
+        <v>15</v>
+      </c>
+      <c r="C1077">
+        <v>2022051015</v>
       </c>
       <c r="D1077">
         <v>26170</v>
@@ -29193,11 +29163,11 @@
       <c r="A1078" t="s">
         <v>161</v>
       </c>
-      <c r="B1078" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1078" t="s">
-        <v>248</v>
+      <c r="B1078">
+        <v>16</v>
+      </c>
+      <c r="C1078">
+        <v>2022051016</v>
       </c>
       <c r="D1078">
         <v>26265</v>
@@ -29219,11 +29189,11 @@
       <c r="A1079" t="s">
         <v>162</v>
       </c>
-      <c r="B1079" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>249</v>
+      <c r="B1079">
+        <v>10</v>
+      </c>
+      <c r="C1079">
+        <v>2022051110</v>
       </c>
       <c r="D1079">
         <v>26165</v>
@@ -29245,11 +29215,11 @@
       <c r="A1080" t="s">
         <v>162</v>
       </c>
-      <c r="B1080" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1080" t="s">
-        <v>250</v>
+      <c r="B1080">
+        <v>11</v>
+      </c>
+      <c r="C1080">
+        <v>2022051111</v>
       </c>
       <c r="D1080">
         <v>26125</v>
@@ -29271,11 +29241,11 @@
       <c r="A1081" t="s">
         <v>162</v>
       </c>
-      <c r="B1081" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>251</v>
+      <c r="B1081">
+        <v>12</v>
+      </c>
+      <c r="C1081">
+        <v>2022051112</v>
       </c>
       <c r="D1081">
         <v>26195</v>
@@ -29297,11 +29267,11 @@
       <c r="A1082" t="s">
         <v>162</v>
       </c>
-      <c r="B1082" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>252</v>
+      <c r="B1082">
+        <v>13</v>
+      </c>
+      <c r="C1082">
+        <v>2022051113</v>
       </c>
       <c r="D1082">
         <v>26180</v>
@@ -29323,11 +29293,11 @@
       <c r="A1083" t="s">
         <v>162</v>
       </c>
-      <c r="B1083" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1083" t="s">
-        <v>253</v>
+      <c r="B1083">
+        <v>14</v>
+      </c>
+      <c r="C1083">
+        <v>2022051114</v>
       </c>
       <c r="D1083">
         <v>26205</v>
@@ -29349,11 +29319,11 @@
       <c r="A1084" t="s">
         <v>162</v>
       </c>
-      <c r="B1084" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1084" t="s">
-        <v>254</v>
+      <c r="B1084">
+        <v>15</v>
+      </c>
+      <c r="C1084">
+        <v>2022051115</v>
       </c>
       <c r="D1084">
         <v>26210</v>
@@ -29375,11 +29345,11 @@
       <c r="A1085" t="s">
         <v>162</v>
       </c>
-      <c r="B1085" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1085" t="s">
-        <v>255</v>
+      <c r="B1085">
+        <v>16</v>
+      </c>
+      <c r="C1085">
+        <v>2022051116</v>
       </c>
       <c r="D1085">
         <v>26215</v>
@@ -29401,11 +29371,11 @@
       <c r="A1086" t="s">
         <v>163</v>
       </c>
-      <c r="B1086" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1086" t="s">
-        <v>256</v>
+      <c r="B1086">
+        <v>10</v>
+      </c>
+      <c r="C1086">
+        <v>2022051210</v>
       </c>
       <c r="D1086">
         <v>25980</v>
@@ -29427,11 +29397,11 @@
       <c r="A1087" t="s">
         <v>163</v>
       </c>
-      <c r="B1087" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1087" t="s">
-        <v>257</v>
+      <c r="B1087">
+        <v>11</v>
+      </c>
+      <c r="C1087">
+        <v>2022051211</v>
       </c>
       <c r="D1087">
         <v>26130</v>
@@ -29453,11 +29423,11 @@
       <c r="A1088" t="s">
         <v>163</v>
       </c>
-      <c r="B1088" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1088" t="s">
-        <v>258</v>
+      <c r="B1088">
+        <v>12</v>
+      </c>
+      <c r="C1088">
+        <v>2022051212</v>
       </c>
       <c r="D1088">
         <v>26145</v>
@@ -29479,11 +29449,11 @@
       <c r="A1089" t="s">
         <v>163</v>
       </c>
-      <c r="B1089" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1089" t="s">
-        <v>259</v>
+      <c r="B1089">
+        <v>13</v>
+      </c>
+      <c r="C1089">
+        <v>2022051213</v>
       </c>
       <c r="D1089">
         <v>26125</v>
@@ -29505,11 +29475,11 @@
       <c r="A1090" t="s">
         <v>163</v>
       </c>
-      <c r="B1090" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1090" t="s">
-        <v>260</v>
+      <c r="B1090">
+        <v>14</v>
+      </c>
+      <c r="C1090">
+        <v>2022051214</v>
       </c>
       <c r="D1090">
         <v>26040</v>
@@ -29531,11 +29501,11 @@
       <c r="A1091" t="s">
         <v>163</v>
       </c>
-      <c r="B1091" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1091" t="s">
-        <v>261</v>
+      <c r="B1091">
+        <v>15</v>
+      </c>
+      <c r="C1091">
+        <v>2022051215</v>
       </c>
       <c r="D1091">
         <v>25915</v>
@@ -29557,11 +29527,11 @@
       <c r="A1092" t="s">
         <v>163</v>
       </c>
-      <c r="B1092" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1092" t="s">
-        <v>262</v>
+      <c r="B1092">
+        <v>16</v>
+      </c>
+      <c r="C1092">
+        <v>2022051216</v>
       </c>
       <c r="D1092">
         <v>25755</v>
@@ -29583,11 +29553,11 @@
       <c r="A1093" t="s">
         <v>164</v>
       </c>
-      <c r="B1093" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1093" t="s">
-        <v>263</v>
+      <c r="B1093">
+        <v>10</v>
+      </c>
+      <c r="C1093">
+        <v>2022051310</v>
       </c>
       <c r="D1093">
         <v>25950</v>
@@ -29609,11 +29579,11 @@
       <c r="A1094" t="s">
         <v>164</v>
       </c>
-      <c r="B1094" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>264</v>
+      <c r="B1094">
+        <v>11</v>
+      </c>
+      <c r="C1094">
+        <v>2022051311</v>
       </c>
       <c r="D1094">
         <v>26095</v>
@@ -29635,11 +29605,11 @@
       <c r="A1095" t="s">
         <v>164</v>
       </c>
-      <c r="B1095" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>265</v>
+      <c r="B1095">
+        <v>12</v>
+      </c>
+      <c r="C1095">
+        <v>2022051312</v>
       </c>
       <c r="D1095">
         <v>26185</v>
@@ -29661,11 +29631,11 @@
       <c r="A1096" t="s">
         <v>164</v>
       </c>
-      <c r="B1096" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1096" t="s">
-        <v>266</v>
+      <c r="B1096">
+        <v>13</v>
+      </c>
+      <c r="C1096">
+        <v>2022051313</v>
       </c>
       <c r="D1096">
         <v>26215</v>
@@ -29687,11 +29657,11 @@
       <c r="A1097" t="s">
         <v>164</v>
       </c>
-      <c r="B1097" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1097" t="s">
-        <v>267</v>
+      <c r="B1097">
+        <v>14</v>
+      </c>
+      <c r="C1097">
+        <v>2022051314</v>
       </c>
       <c r="D1097">
         <v>26180</v>
@@ -29713,11 +29683,11 @@
       <c r="A1098" t="s">
         <v>164</v>
       </c>
-      <c r="B1098" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1098" t="s">
-        <v>268</v>
+      <c r="B1098">
+        <v>15</v>
+      </c>
+      <c r="C1098">
+        <v>2022051315</v>
       </c>
       <c r="D1098">
         <v>26220</v>
@@ -29739,11 +29709,11 @@
       <c r="A1099" t="s">
         <v>164</v>
       </c>
-      <c r="B1099" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1099" t="s">
-        <v>269</v>
+      <c r="B1099">
+        <v>16</v>
+      </c>
+      <c r="C1099">
+        <v>2022051316</v>
       </c>
       <c r="D1099">
         <v>26295</v>
@@ -29759,6 +29729,2008 @@
       </c>
       <c r="H1099">
         <v>6279</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8">
+      <c r="A1100" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1100">
+        <v>26505</v>
+      </c>
+      <c r="E1100">
+        <v>26395</v>
+      </c>
+      <c r="F1100">
+        <v>26555</v>
+      </c>
+      <c r="G1100">
+        <v>26365</v>
+      </c>
+      <c r="H1100">
+        <v>8088</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8">
+      <c r="A1101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1101">
+        <v>26415</v>
+      </c>
+      <c r="E1101">
+        <v>26280</v>
+      </c>
+      <c r="F1101">
+        <v>26430</v>
+      </c>
+      <c r="G1101">
+        <v>26280</v>
+      </c>
+      <c r="H1101">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8">
+      <c r="A1102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1102">
+        <v>26295</v>
+      </c>
+      <c r="E1102">
+        <v>26275</v>
+      </c>
+      <c r="F1102">
+        <v>26295</v>
+      </c>
+      <c r="G1102">
+        <v>26235</v>
+      </c>
+      <c r="H1102">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8">
+      <c r="A1103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1103">
+        <v>26260</v>
+      </c>
+      <c r="E1103">
+        <v>26255</v>
+      </c>
+      <c r="F1103">
+        <v>26275</v>
+      </c>
+      <c r="G1103">
+        <v>26230</v>
+      </c>
+      <c r="H1103">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8">
+      <c r="A1104" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1104">
+        <v>26255</v>
+      </c>
+      <c r="E1104">
+        <v>26295</v>
+      </c>
+      <c r="F1104">
+        <v>26295</v>
+      </c>
+      <c r="G1104">
+        <v>26235</v>
+      </c>
+      <c r="H1104">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8">
+      <c r="A1105" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1105">
+        <v>26280</v>
+      </c>
+      <c r="E1105">
+        <v>26320</v>
+      </c>
+      <c r="F1105">
+        <v>26340</v>
+      </c>
+      <c r="G1105">
+        <v>26260</v>
+      </c>
+      <c r="H1105">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8">
+      <c r="A1106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1106">
+        <v>26325</v>
+      </c>
+      <c r="E1106">
+        <v>26265</v>
+      </c>
+      <c r="F1106">
+        <v>26330</v>
+      </c>
+      <c r="G1106">
+        <v>26265</v>
+      </c>
+      <c r="H1106">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8">
+      <c r="A1107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1107">
+        <v>26265</v>
+      </c>
+      <c r="E1107">
+        <v>26395</v>
+      </c>
+      <c r="F1107">
+        <v>26435</v>
+      </c>
+      <c r="G1107">
+        <v>26265</v>
+      </c>
+      <c r="H1107">
+        <v>23257</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8">
+      <c r="A1108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1108">
+        <v>26390</v>
+      </c>
+      <c r="E1108">
+        <v>26445</v>
+      </c>
+      <c r="F1108">
+        <v>26455</v>
+      </c>
+      <c r="G1108">
+        <v>26360</v>
+      </c>
+      <c r="H1108">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8">
+      <c r="A1109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1109">
+        <v>26440</v>
+      </c>
+      <c r="E1109">
+        <v>26405</v>
+      </c>
+      <c r="F1109">
+        <v>26445</v>
+      </c>
+      <c r="G1109">
+        <v>26380</v>
+      </c>
+      <c r="H1109">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8">
+      <c r="A1110" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1110">
+        <v>26405</v>
+      </c>
+      <c r="E1110">
+        <v>26415</v>
+      </c>
+      <c r="F1110">
+        <v>26420</v>
+      </c>
+      <c r="G1110">
+        <v>26390</v>
+      </c>
+      <c r="H1110">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8">
+      <c r="A1111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1111">
+        <v>26415</v>
+      </c>
+      <c r="E1111">
+        <v>26445</v>
+      </c>
+      <c r="F1111">
+        <v>26455</v>
+      </c>
+      <c r="G1111">
+        <v>26405</v>
+      </c>
+      <c r="H1111">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8">
+      <c r="A1112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1112">
+        <v>26425</v>
+      </c>
+      <c r="E1112">
+        <v>26440</v>
+      </c>
+      <c r="F1112">
+        <v>26445</v>
+      </c>
+      <c r="G1112">
+        <v>26405</v>
+      </c>
+      <c r="H1112">
+        <v>11269</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8">
+      <c r="A1113" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1113">
+        <v>26445</v>
+      </c>
+      <c r="E1113">
+        <v>26485</v>
+      </c>
+      <c r="F1113">
+        <v>26485</v>
+      </c>
+      <c r="G1113">
+        <v>26440</v>
+      </c>
+      <c r="H1113">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8">
+      <c r="A1114" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1114">
+        <v>26625</v>
+      </c>
+      <c r="E1114">
+        <v>26555</v>
+      </c>
+      <c r="F1114">
+        <v>26700</v>
+      </c>
+      <c r="G1114">
+        <v>26550</v>
+      </c>
+      <c r="H1114">
+        <v>33467</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8">
+      <c r="A1115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1115">
+        <v>26565</v>
+      </c>
+      <c r="E1115">
+        <v>26515</v>
+      </c>
+      <c r="F1115">
+        <v>26575</v>
+      </c>
+      <c r="G1115">
+        <v>26475</v>
+      </c>
+      <c r="H1115">
+        <v>12458</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8">
+      <c r="A1116" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1116">
+        <v>26525</v>
+      </c>
+      <c r="E1116">
+        <v>26560</v>
+      </c>
+      <c r="F1116">
+        <v>26565</v>
+      </c>
+      <c r="G1116">
+        <v>26495</v>
+      </c>
+      <c r="H1116">
+        <v>24556</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8">
+      <c r="A1117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1117">
+        <v>26555</v>
+      </c>
+      <c r="E1117">
+        <v>26505</v>
+      </c>
+      <c r="F1117">
+        <v>26565</v>
+      </c>
+      <c r="G1117">
+        <v>26480</v>
+      </c>
+      <c r="H1117">
+        <v>24775</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8">
+      <c r="A1118" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1118">
+        <v>26500</v>
+      </c>
+      <c r="E1118">
+        <v>26505</v>
+      </c>
+      <c r="F1118">
+        <v>26530</v>
+      </c>
+      <c r="G1118">
+        <v>26480</v>
+      </c>
+      <c r="H1118">
+        <v>21271</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8">
+      <c r="A1119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1119">
+        <v>26500</v>
+      </c>
+      <c r="E1119">
+        <v>26560</v>
+      </c>
+      <c r="F1119">
+        <v>26565</v>
+      </c>
+      <c r="G1119">
+        <v>26495</v>
+      </c>
+      <c r="H1119">
+        <v>21448</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8">
+      <c r="A1120" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1120">
+        <v>26560</v>
+      </c>
+      <c r="E1120">
+        <v>26560</v>
+      </c>
+      <c r="F1120">
+        <v>26580</v>
+      </c>
+      <c r="G1120">
+        <v>26555</v>
+      </c>
+      <c r="H1120">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8">
+      <c r="A1121" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1121">
+        <v>25960</v>
+      </c>
+      <c r="E1121">
+        <v>26130</v>
+      </c>
+      <c r="F1121">
+        <v>26130</v>
+      </c>
+      <c r="G1121">
+        <v>25960</v>
+      </c>
+      <c r="H1121">
+        <v>9794</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8">
+      <c r="A1122" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1122">
+        <v>26135</v>
+      </c>
+      <c r="E1122">
+        <v>26110</v>
+      </c>
+      <c r="F1122">
+        <v>26190</v>
+      </c>
+      <c r="G1122">
+        <v>26065</v>
+      </c>
+      <c r="H1122">
+        <v>17574</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8">
+      <c r="A1123" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1123">
+        <v>26115</v>
+      </c>
+      <c r="E1123">
+        <v>26150</v>
+      </c>
+      <c r="F1123">
+        <v>26165</v>
+      </c>
+      <c r="G1123">
+        <v>26115</v>
+      </c>
+      <c r="H1123">
+        <v>17560</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8">
+      <c r="A1124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1124">
+        <v>26150</v>
+      </c>
+      <c r="E1124">
+        <v>26235</v>
+      </c>
+      <c r="F1124">
+        <v>26240</v>
+      </c>
+      <c r="G1124">
+        <v>26150</v>
+      </c>
+      <c r="H1124">
+        <v>16196</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8">
+      <c r="A1125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1125">
+        <v>26235</v>
+      </c>
+      <c r="E1125">
+        <v>26240</v>
+      </c>
+      <c r="F1125">
+        <v>26255</v>
+      </c>
+      <c r="G1125">
+        <v>26190</v>
+      </c>
+      <c r="H1125">
+        <v>20972</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8">
+      <c r="A1126" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1126">
+        <v>26245</v>
+      </c>
+      <c r="E1126">
+        <v>26215</v>
+      </c>
+      <c r="F1126">
+        <v>26260</v>
+      </c>
+      <c r="G1126">
+        <v>26155</v>
+      </c>
+      <c r="H1126">
+        <v>47709</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8">
+      <c r="A1127" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1127">
+        <v>26195</v>
+      </c>
+      <c r="E1127">
+        <v>26225</v>
+      </c>
+      <c r="F1127">
+        <v>26240</v>
+      </c>
+      <c r="G1127">
+        <v>26170</v>
+      </c>
+      <c r="H1127">
+        <v>19363</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8">
+      <c r="A1128" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1128">
+        <v>26345</v>
+      </c>
+      <c r="E1128">
+        <v>26470</v>
+      </c>
+      <c r="F1128">
+        <v>26500</v>
+      </c>
+      <c r="G1128">
+        <v>26345</v>
+      </c>
+      <c r="H1128">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8">
+      <c r="A1129" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1129">
+        <v>26475</v>
+      </c>
+      <c r="E1129">
+        <v>26600</v>
+      </c>
+      <c r="F1129">
+        <v>26600</v>
+      </c>
+      <c r="G1129">
+        <v>26475</v>
+      </c>
+      <c r="H1129">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8">
+      <c r="A1130" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1130">
+        <v>26595</v>
+      </c>
+      <c r="E1130">
+        <v>26650</v>
+      </c>
+      <c r="F1130">
+        <v>26650</v>
+      </c>
+      <c r="G1130">
+        <v>26550</v>
+      </c>
+      <c r="H1130">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8">
+      <c r="A1131" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1131">
+        <v>26645</v>
+      </c>
+      <c r="E1131">
+        <v>26620</v>
+      </c>
+      <c r="F1131">
+        <v>26645</v>
+      </c>
+      <c r="G1131">
+        <v>26595</v>
+      </c>
+      <c r="H1131">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8">
+      <c r="A1132" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1132">
+        <v>26620</v>
+      </c>
+      <c r="E1132">
+        <v>26655</v>
+      </c>
+      <c r="F1132">
+        <v>26675</v>
+      </c>
+      <c r="G1132">
+        <v>26620</v>
+      </c>
+      <c r="H1132">
+        <v>9355</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8">
+      <c r="A1133" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1133">
+        <v>26655</v>
+      </c>
+      <c r="E1133">
+        <v>26660</v>
+      </c>
+      <c r="F1133">
+        <v>26680</v>
+      </c>
+      <c r="G1133">
+        <v>26630</v>
+      </c>
+      <c r="H1133">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8">
+      <c r="A1134" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1134">
+        <v>26660</v>
+      </c>
+      <c r="E1134">
+        <v>26680</v>
+      </c>
+      <c r="F1134">
+        <v>26680</v>
+      </c>
+      <c r="G1134">
+        <v>26640</v>
+      </c>
+      <c r="H1134">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8">
+      <c r="A1135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1135">
+        <v>26800</v>
+      </c>
+      <c r="E1135">
+        <v>26695</v>
+      </c>
+      <c r="F1135">
+        <v>26800</v>
+      </c>
+      <c r="G1135">
+        <v>26650</v>
+      </c>
+      <c r="H1135">
+        <v>12711</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8">
+      <c r="A1136" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1136">
+        <v>26690</v>
+      </c>
+      <c r="E1136">
+        <v>26680</v>
+      </c>
+      <c r="F1136">
+        <v>26735</v>
+      </c>
+      <c r="G1136">
+        <v>26665</v>
+      </c>
+      <c r="H1136">
+        <v>17089</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8">
+      <c r="A1137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1137">
+        <v>26680</v>
+      </c>
+      <c r="E1137">
+        <v>26680</v>
+      </c>
+      <c r="F1137">
+        <v>26685</v>
+      </c>
+      <c r="G1137">
+        <v>26620</v>
+      </c>
+      <c r="H1137">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8">
+      <c r="A1138" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1138">
+        <v>26685</v>
+      </c>
+      <c r="E1138">
+        <v>26665</v>
+      </c>
+      <c r="F1138">
+        <v>26700</v>
+      </c>
+      <c r="G1138">
+        <v>26655</v>
+      </c>
+      <c r="H1138">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8">
+      <c r="A1139" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1139">
+        <v>26665</v>
+      </c>
+      <c r="E1139">
+        <v>26655</v>
+      </c>
+      <c r="F1139">
+        <v>26685</v>
+      </c>
+      <c r="G1139">
+        <v>26655</v>
+      </c>
+      <c r="H1139">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8">
+      <c r="A1140" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1140">
+        <v>26660</v>
+      </c>
+      <c r="E1140">
+        <v>26695</v>
+      </c>
+      <c r="F1140">
+        <v>26695</v>
+      </c>
+      <c r="G1140">
+        <v>26645</v>
+      </c>
+      <c r="H1140">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8">
+      <c r="A1141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1141">
+        <v>26700</v>
+      </c>
+      <c r="E1141">
+        <v>26775</v>
+      </c>
+      <c r="F1141">
+        <v>26775</v>
+      </c>
+      <c r="G1141">
+        <v>26675</v>
+      </c>
+      <c r="H1141">
+        <v>20206</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8">
+      <c r="A1142" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1142">
+        <v>26705</v>
+      </c>
+      <c r="E1142">
+        <v>26595</v>
+      </c>
+      <c r="F1142">
+        <v>26730</v>
+      </c>
+      <c r="G1142">
+        <v>26595</v>
+      </c>
+      <c r="H1142">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8">
+      <c r="A1143" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1143">
+        <v>26595</v>
+      </c>
+      <c r="E1143">
+        <v>26545</v>
+      </c>
+      <c r="F1143">
+        <v>26605</v>
+      </c>
+      <c r="G1143">
+        <v>26495</v>
+      </c>
+      <c r="H1143">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8">
+      <c r="A1144" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1144">
+        <v>26545</v>
+      </c>
+      <c r="E1144">
+        <v>26500</v>
+      </c>
+      <c r="F1144">
+        <v>26570</v>
+      </c>
+      <c r="G1144">
+        <v>26500</v>
+      </c>
+      <c r="H1144">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8">
+      <c r="A1145" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1145">
+        <v>26530</v>
+      </c>
+      <c r="E1145">
+        <v>26535</v>
+      </c>
+      <c r="F1145">
+        <v>26535</v>
+      </c>
+      <c r="G1145">
+        <v>26500</v>
+      </c>
+      <c r="H1145">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8">
+      <c r="A1146" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1146">
+        <v>26520</v>
+      </c>
+      <c r="E1146">
+        <v>26460</v>
+      </c>
+      <c r="F1146">
+        <v>26535</v>
+      </c>
+      <c r="G1146">
+        <v>26440</v>
+      </c>
+      <c r="H1146">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8">
+      <c r="A1147" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1147">
+        <v>26450</v>
+      </c>
+      <c r="E1147">
+        <v>26370</v>
+      </c>
+      <c r="F1147">
+        <v>26475</v>
+      </c>
+      <c r="G1147">
+        <v>26360</v>
+      </c>
+      <c r="H1147">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8">
+      <c r="A1148" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1148">
+        <v>26370</v>
+      </c>
+      <c r="E1148">
+        <v>26365</v>
+      </c>
+      <c r="F1148">
+        <v>26390</v>
+      </c>
+      <c r="G1148">
+        <v>26360</v>
+      </c>
+      <c r="H1148">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8">
+      <c r="A1149" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1149">
+        <v>26465</v>
+      </c>
+      <c r="E1149">
+        <v>26520</v>
+      </c>
+      <c r="F1149">
+        <v>26535</v>
+      </c>
+      <c r="G1149">
+        <v>26325</v>
+      </c>
+      <c r="H1149">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8">
+      <c r="A1150" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1150">
+        <v>26525</v>
+      </c>
+      <c r="E1150">
+        <v>26495</v>
+      </c>
+      <c r="F1150">
+        <v>26550</v>
+      </c>
+      <c r="G1150">
+        <v>26460</v>
+      </c>
+      <c r="H1150">
+        <v>13075</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8">
+      <c r="A1151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1151">
+        <v>26500</v>
+      </c>
+      <c r="E1151">
+        <v>26490</v>
+      </c>
+      <c r="F1151">
+        <v>26535</v>
+      </c>
+      <c r="G1151">
+        <v>26470</v>
+      </c>
+      <c r="H1151">
+        <v>12314</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8">
+      <c r="A1152" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1152">
+        <v>26485</v>
+      </c>
+      <c r="E1152">
+        <v>26535</v>
+      </c>
+      <c r="F1152">
+        <v>26535</v>
+      </c>
+      <c r="G1152">
+        <v>26470</v>
+      </c>
+      <c r="H1152">
+        <v>15966</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8">
+      <c r="A1153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1153">
+        <v>26530</v>
+      </c>
+      <c r="E1153">
+        <v>26515</v>
+      </c>
+      <c r="F1153">
+        <v>26555</v>
+      </c>
+      <c r="G1153">
+        <v>26515</v>
+      </c>
+      <c r="H1153">
+        <v>15670</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8">
+      <c r="A1154" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1154">
+        <v>26515</v>
+      </c>
+      <c r="E1154">
+        <v>26475</v>
+      </c>
+      <c r="F1154">
+        <v>26570</v>
+      </c>
+      <c r="G1154">
+        <v>26445</v>
+      </c>
+      <c r="H1154">
+        <v>39475</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8">
+      <c r="A1155" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1155">
+        <v>26475</v>
+      </c>
+      <c r="E1155">
+        <v>26450</v>
+      </c>
+      <c r="F1155">
+        <v>26475</v>
+      </c>
+      <c r="G1155">
+        <v>26435</v>
+      </c>
+      <c r="H1155">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8">
+      <c r="A1156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1156">
+        <v>26475</v>
+      </c>
+      <c r="E1156">
+        <v>26670</v>
+      </c>
+      <c r="F1156">
+        <v>26670</v>
+      </c>
+      <c r="G1156">
+        <v>26475</v>
+      </c>
+      <c r="H1156">
+        <v>7940</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8">
+      <c r="A1157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1157">
+        <v>26670</v>
+      </c>
+      <c r="E1157">
+        <v>26525</v>
+      </c>
+      <c r="F1157">
+        <v>26675</v>
+      </c>
+      <c r="G1157">
+        <v>26505</v>
+      </c>
+      <c r="H1157">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8">
+      <c r="A1158" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1158">
+        <v>26525</v>
+      </c>
+      <c r="E1158">
+        <v>26575</v>
+      </c>
+      <c r="F1158">
+        <v>26585</v>
+      </c>
+      <c r="G1158">
+        <v>26495</v>
+      </c>
+      <c r="H1158">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8">
+      <c r="A1159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1159">
+        <v>26570</v>
+      </c>
+      <c r="E1159">
+        <v>26510</v>
+      </c>
+      <c r="F1159">
+        <v>26570</v>
+      </c>
+      <c r="G1159">
+        <v>26480</v>
+      </c>
+      <c r="H1159">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8">
+      <c r="A1160" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1160">
+        <v>26510</v>
+      </c>
+      <c r="E1160">
+        <v>26425</v>
+      </c>
+      <c r="F1160">
+        <v>26535</v>
+      </c>
+      <c r="G1160">
+        <v>26425</v>
+      </c>
+      <c r="H1160">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8">
+      <c r="A1161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1161">
+        <v>26415</v>
+      </c>
+      <c r="E1161">
+        <v>26330</v>
+      </c>
+      <c r="F1161">
+        <v>26445</v>
+      </c>
+      <c r="G1161">
+        <v>26330</v>
+      </c>
+      <c r="H1161">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8">
+      <c r="A1162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1162">
+        <v>26335</v>
+      </c>
+      <c r="E1162">
+        <v>26360</v>
+      </c>
+      <c r="F1162">
+        <v>26360</v>
+      </c>
+      <c r="G1162">
+        <v>26275</v>
+      </c>
+      <c r="H1162">
+        <v>42354</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8">
+      <c r="A1163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1163">
+        <v>26650</v>
+      </c>
+      <c r="E1163">
+        <v>26630</v>
+      </c>
+      <c r="F1163">
+        <v>26715</v>
+      </c>
+      <c r="G1163">
+        <v>26575</v>
+      </c>
+      <c r="H1163">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8">
+      <c r="A1164" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1164">
+        <v>26625</v>
+      </c>
+      <c r="E1164">
+        <v>26655</v>
+      </c>
+      <c r="F1164">
+        <v>26700</v>
+      </c>
+      <c r="G1164">
+        <v>26595</v>
+      </c>
+      <c r="H1164">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8">
+      <c r="A1165" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1165">
+        <v>26675</v>
+      </c>
+      <c r="E1165">
+        <v>26605</v>
+      </c>
+      <c r="F1165">
+        <v>26675</v>
+      </c>
+      <c r="G1165">
+        <v>26600</v>
+      </c>
+      <c r="H1165">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8">
+      <c r="A1166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1166">
+        <v>26605</v>
+      </c>
+      <c r="E1166">
+        <v>26600</v>
+      </c>
+      <c r="F1166">
+        <v>26635</v>
+      </c>
+      <c r="G1166">
+        <v>26600</v>
+      </c>
+      <c r="H1166">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8">
+      <c r="A1167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1167">
+        <v>26605</v>
+      </c>
+      <c r="E1167">
+        <v>26645</v>
+      </c>
+      <c r="F1167">
+        <v>26660</v>
+      </c>
+      <c r="G1167">
+        <v>26605</v>
+      </c>
+      <c r="H1167">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8">
+      <c r="A1168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1168">
+        <v>26635</v>
+      </c>
+      <c r="E1168">
+        <v>26610</v>
+      </c>
+      <c r="F1168">
+        <v>26655</v>
+      </c>
+      <c r="G1168">
+        <v>26605</v>
+      </c>
+      <c r="H1168">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8">
+      <c r="A1169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1169">
+        <v>26625</v>
+      </c>
+      <c r="E1169">
+        <v>26675</v>
+      </c>
+      <c r="F1169">
+        <v>26675</v>
+      </c>
+      <c r="G1169">
+        <v>26605</v>
+      </c>
+      <c r="H1169">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8">
+      <c r="A1170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1170">
+        <v>26945</v>
+      </c>
+      <c r="E1170">
+        <v>26880</v>
+      </c>
+      <c r="F1170">
+        <v>26955</v>
+      </c>
+      <c r="G1170">
+        <v>26820</v>
+      </c>
+      <c r="H1170">
+        <v>7889</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8">
+      <c r="A1171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1171">
+        <v>26865</v>
+      </c>
+      <c r="E1171">
+        <v>26925</v>
+      </c>
+      <c r="F1171">
+        <v>26925</v>
+      </c>
+      <c r="G1171">
+        <v>26855</v>
+      </c>
+      <c r="H1171">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8">
+      <c r="A1172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1172">
+        <v>26925</v>
+      </c>
+      <c r="E1172">
+        <v>26945</v>
+      </c>
+      <c r="F1172">
+        <v>26985</v>
+      </c>
+      <c r="G1172">
+        <v>26910</v>
+      </c>
+      <c r="H1172">
+        <v>19480</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8">
+      <c r="A1173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1173">
+        <v>26965</v>
+      </c>
+      <c r="E1173">
+        <v>26955</v>
+      </c>
+      <c r="F1173">
+        <v>26970</v>
+      </c>
+      <c r="G1173">
+        <v>26925</v>
+      </c>
+      <c r="H1173">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8">
+      <c r="A1174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1174">
+        <v>26955</v>
+      </c>
+      <c r="E1174">
+        <v>26955</v>
+      </c>
+      <c r="F1174">
+        <v>26995</v>
+      </c>
+      <c r="G1174">
+        <v>26955</v>
+      </c>
+      <c r="H1174">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8">
+      <c r="A1175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1175">
+        <v>26955</v>
+      </c>
+      <c r="E1175">
+        <v>26960</v>
+      </c>
+      <c r="F1175">
+        <v>26970</v>
+      </c>
+      <c r="G1175">
+        <v>26950</v>
+      </c>
+      <c r="H1175">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8">
+      <c r="A1176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1176">
+        <v>26970</v>
+      </c>
+      <c r="E1176">
+        <v>26935</v>
+      </c>
+      <c r="F1176">
+        <v>26970</v>
+      </c>
+      <c r="G1176">
+        <v>26935</v>
+      </c>
+      <c r="H1176">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
